--- a/dcd_top_offset_range_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_range_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="82">
   <si>
     <t>Process</t>
   </si>
@@ -758,11 +758,11 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>36</v>
+      <c r="V2">
+        <v>-6.66624</v>
+      </c>
+      <c r="W2">
+        <v>6.65638</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -829,11 +829,11 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>36</v>
+      <c r="V3">
+        <v>-7.9208</v>
+      </c>
+      <c r="W3">
+        <v>7.85949</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -900,11 +900,11 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>36</v>
+      <c r="V4">
+        <v>-6.04503</v>
+      </c>
+      <c r="W4">
+        <v>6.07789</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -971,11 +971,11 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>36</v>
+      <c r="V5">
+        <v>-7.35354</v>
+      </c>
+      <c r="W5">
+        <v>7.36635</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1042,11 +1042,11 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>36</v>
+      <c r="V6">
+        <v>-5.47758</v>
+      </c>
+      <c r="W6">
+        <v>5.47207</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1113,11 +1113,11 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>36</v>
+      <c r="V7">
+        <v>-7.53332</v>
+      </c>
+      <c r="W7">
+        <v>7.57574</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1184,11 +1184,11 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>36</v>
+      <c r="V8">
+        <v>-5.61293</v>
+      </c>
+      <c r="W8">
+        <v>5.61112</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1255,11 +1255,11 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>36</v>
+      <c r="V9">
+        <v>-7.40006</v>
+      </c>
+      <c r="W9">
+        <v>7.33337</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1326,11 +1326,11 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>36</v>
+      <c r="V10">
+        <v>-5.51945</v>
+      </c>
+      <c r="W10">
+        <v>5.56523</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
@@ -1432,11 +1432,11 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>73</v>
+      <c r="V12" s="1">
+        <v>-7.9208</v>
+      </c>
+      <c r="W12" s="1">
+        <v>5.47207</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
@@ -1467,11 +1467,11 @@
       <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>73</v>
+      <c r="V13" s="1">
+        <v>-5.47758</v>
+      </c>
+      <c r="W13" s="1">
+        <v>7.85949</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
@@ -1522,11 +1522,11 @@
       <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>73</v>
+      <c r="V18" s="1">
+        <v>-6.614328</v>
+      </c>
+      <c r="W18" s="1">
+        <v>6.613071</v>
       </c>
     </row>
     <row r="19" spans="13:23" s="1" customFormat="1">
@@ -1557,11 +1557,11 @@
       <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>73</v>
+      <c r="V19" s="1">
+        <v>0.915045</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.89806</v>
       </c>
     </row>
     <row r="20" spans="13:23" s="1" customFormat="1">
@@ -1592,11 +1592,11 @@
       <c r="U20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>73</v>
+      <c r="V20" s="1">
+        <v>13.834285</v>
+      </c>
+      <c r="W20" s="1">
+        <v>13.580075</v>
       </c>
     </row>
     <row r="21" spans="13:23" s="1" customFormat="1"/>

--- a/dcd_top_offset_range_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_range_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="80">
   <si>
     <t>Process</t>
   </si>
@@ -124,9 +124,6 @@
     <t>typical</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>tsmc2p (1)</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>Max</t>
@@ -266,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,26 +276,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,10 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,29 +714,29 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>36</v>
+      <c r="N2">
+        <v>49.9206</v>
+      </c>
+      <c r="O2">
+        <v>2.81984</v>
+      </c>
+      <c r="P2">
+        <v>0.0838854</v>
+      </c>
+      <c r="Q2">
+        <v>-2.65316</v>
+      </c>
+      <c r="R2">
+        <v>-49.9988</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.7359546</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.7370454</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.561240625</v>
       </c>
       <c r="V2">
         <v>-6.66624</v>
@@ -767,34 +747,34 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
@@ -803,31 +783,31 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="N3">
+        <v>64.83929999999999</v>
+      </c>
+      <c r="O3">
+        <v>3.40027</v>
+      </c>
+      <c r="P3">
+        <v>0.0461746</v>
+      </c>
+      <c r="Q3">
+        <v>-3.2573</v>
+      </c>
+      <c r="R3">
+        <v>-65.3481</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.3540954</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3.3034746</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>2.034178125</v>
       </c>
       <c r="V3">
         <v>-7.9208</v>
@@ -838,34 +818,34 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -874,31 +854,31 @@
         <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>50.1411</v>
+      </c>
+      <c r="O4">
+        <v>2.45331</v>
+      </c>
+      <c r="P4">
+        <v>0.128218</v>
+      </c>
+      <c r="Q4">
+        <v>-2.04108</v>
+      </c>
+      <c r="R4">
+        <v>-49.8731</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.325092</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.169298</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.562721875</v>
       </c>
       <c r="V4">
         <v>-6.04503</v>
@@ -909,34 +889,34 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
       <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
@@ -945,31 +925,31 @@
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>60.7701</v>
+      </c>
+      <c r="O5">
+        <v>3.08059</v>
+      </c>
+      <c r="P5">
+        <v>0.195989</v>
+      </c>
+      <c r="Q5">
+        <v>-2.73745</v>
+      </c>
+      <c r="R5">
+        <v>-60.6691</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.884601</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2.933439</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.8974875</v>
       </c>
       <c r="V5">
         <v>-7.35354</v>
@@ -980,34 +960,34 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -1016,31 +996,31 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N6">
+        <v>45.1421</v>
+      </c>
+      <c r="O6">
+        <v>2.6589</v>
+      </c>
+      <c r="P6">
+        <v>0.074771</v>
+      </c>
+      <c r="Q6">
+        <v>-2.35402</v>
+      </c>
+      <c r="R6">
+        <v>-45.1924</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.584129</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2.428791</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.4114765625</v>
       </c>
       <c r="V6">
         <v>-5.47758</v>
@@ -1051,34 +1031,34 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
       <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
       <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
         <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
@@ -1087,31 +1067,31 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N7">
+        <v>62.4981</v>
+      </c>
+      <c r="O7">
+        <v>3.0458</v>
+      </c>
+      <c r="P7">
+        <v>0.19737</v>
+      </c>
+      <c r="Q7">
+        <v>-2.65001</v>
+      </c>
+      <c r="R7">
+        <v>-62.1518</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.84843</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2.84738</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.9476546875</v>
       </c>
       <c r="V7">
         <v>-7.53332</v>
@@ -1122,34 +1102,34 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
       <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
         <v>33</v>
@@ -1158,31 +1138,31 @@
         <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>46.2899</v>
+      </c>
+      <c r="O8">
+        <v>2.31079</v>
+      </c>
+      <c r="P8">
+        <v>0.243738</v>
+      </c>
+      <c r="Q8">
+        <v>-1.82308</v>
+      </c>
+      <c r="R8">
+        <v>-46.3085</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.067052</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2.066818</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.44685</v>
       </c>
       <c r="V8">
         <v>-5.61293</v>
@@ -1193,34 +1173,34 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
       <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
         <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
       </c>
       <c r="K9" t="s">
         <v>33</v>
@@ -1229,31 +1209,31 @@
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N9">
+        <v>60.4984</v>
+      </c>
+      <c r="O9">
+        <v>3.00057</v>
+      </c>
+      <c r="P9">
+        <v>0.021662</v>
+      </c>
+      <c r="Q9">
+        <v>-2.81149</v>
+      </c>
+      <c r="R9">
+        <v>-61.0526</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.978908</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.833152</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.899234375</v>
       </c>
       <c r="V9">
         <v>-7.40006</v>
@@ -1264,34 +1244,34 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
@@ -1300,31 +1280,31 @@
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N10">
+        <v>45.9112</v>
+      </c>
+      <c r="O10">
+        <v>2.24666</v>
+      </c>
+      <c r="P10">
+        <v>0.134148</v>
+      </c>
+      <c r="Q10">
+        <v>-1.98711</v>
+      </c>
+      <c r="R10">
+        <v>-45.5374</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.112512</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2.121258</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.428884375</v>
       </c>
       <c r="V10">
         <v>-5.51945</v>
@@ -1406,31 +1386,31 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="M12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="N12" s="1">
+        <v>45.1421</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.24666</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.021662</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-3.2573</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-65.3481</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>2.067052</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>2.066818</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1.4114765625</v>
       </c>
       <c r="V12" s="1">
         <v>-7.9208</v>
@@ -1441,31 +1421,31 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="M13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="N13" s="1">
+        <v>64.83929999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3.40027</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.243738</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1.82308</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-45.1924</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>3.3540954</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>3.3034746</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>2.034178125</v>
       </c>
       <c r="V13" s="1">
         <v>-5.47758</v>
@@ -1476,51 +1456,51 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="M14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="M15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="M16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="13:23" s="1" customFormat="1">
       <c r="M17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="13:23" s="1" customFormat="1">
       <c r="M18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="N18" s="1">
+        <v>54.0012</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2.779637</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.1251062</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-2.479411</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-54.01464</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>2.65453</v>
       </c>
       <c r="T18" s="1">
-        <v>0</v>
+        <v>2.604517</v>
       </c>
       <c r="U18" s="1">
-        <v>0</v>
+        <v>1.687748</v>
       </c>
       <c r="V18" s="1">
         <v>-6.614328</v>
@@ -1531,31 +1511,31 @@
     </row>
     <row r="19" spans="13:23" s="1" customFormat="1">
       <c r="M19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="N19" s="1">
+        <v>7.547192</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.368477</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.071161</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.437449</v>
+      </c>
+      <c r="R19" s="1">
+        <v>7.679951</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>0.400579</v>
       </c>
       <c r="T19" s="1">
-        <v>0</v>
+        <v>0.40394</v>
       </c>
       <c r="U19" s="1">
-        <v>0</v>
+        <v>0.237881</v>
       </c>
       <c r="V19" s="1">
         <v>0.915045</v>
@@ -1566,31 +1546,31 @@
     </row>
     <row r="20" spans="13:23" s="1" customFormat="1">
       <c r="M20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="N20" s="1">
+        <v>13.975971</v>
+      </c>
+      <c r="O20" s="1">
+        <v>13.256299</v>
+      </c>
+      <c r="P20" s="1">
+        <v>56.880474</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>17.643263</v>
+      </c>
+      <c r="R20" s="1">
+        <v>14.218277</v>
+      </c>
+      <c r="S20" s="1">
+        <v>15.090393</v>
+      </c>
+      <c r="T20" s="1">
+        <v>15.50921</v>
+      </c>
+      <c r="U20" s="1">
+        <v>14.09458</v>
       </c>
       <c r="V20" s="1">
         <v>13.834285</v>

--- a/dcd_top_offset_range_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_range_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="81">
   <si>
     <t>Process</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>typical</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (1)</t>
@@ -260,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +279,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000 "/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -297,9 +313,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,67 +731,67 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2">
-        <v>49.9206</v>
-      </c>
-      <c r="O2">
-        <v>2.81984</v>
-      </c>
-      <c r="P2">
-        <v>0.0838854</v>
-      </c>
-      <c r="Q2">
-        <v>-2.65316</v>
-      </c>
-      <c r="R2">
-        <v>-49.9988</v>
-      </c>
-      <c r="S2">
-        <v>2.7359546</v>
-      </c>
-      <c r="T2">
-        <v>2.7370454</v>
-      </c>
-      <c r="U2">
-        <v>1.561240625</v>
-      </c>
-      <c r="V2">
-        <v>-6.66624</v>
-      </c>
-      <c r="W2">
-        <v>6.65638</v>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
@@ -783,69 +800,69 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3">
-        <v>64.83929999999999</v>
+        <v>78.7617</v>
       </c>
       <c r="O3">
-        <v>3.40027</v>
+        <v>4.45169</v>
       </c>
       <c r="P3">
-        <v>0.0461746</v>
+        <v>-0.00266445</v>
       </c>
       <c r="Q3">
-        <v>-3.2573</v>
+        <v>-4.2584</v>
       </c>
       <c r="R3">
-        <v>-65.3481</v>
+        <v>-78.8015</v>
       </c>
       <c r="S3">
-        <v>3.3540954</v>
+        <v>4.45435445</v>
       </c>
       <c r="T3">
-        <v>3.3034746</v>
+        <v>4.25573555</v>
       </c>
       <c r="U3">
-        <v>2.034178125</v>
+        <v>2.461925</v>
       </c>
       <c r="V3">
-        <v>-7.9208</v>
+        <v>-9.55151</v>
       </c>
       <c r="W3">
-        <v>7.85949</v>
+        <v>9.54706</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -854,69 +871,69 @@
         <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4">
-        <v>50.1411</v>
-      </c>
-      <c r="O4">
-        <v>2.45331</v>
-      </c>
-      <c r="P4">
-        <v>0.128218</v>
-      </c>
-      <c r="Q4">
-        <v>-2.04108</v>
-      </c>
-      <c r="R4">
-        <v>-49.8731</v>
-      </c>
-      <c r="S4">
-        <v>2.325092</v>
-      </c>
-      <c r="T4">
-        <v>2.169298</v>
-      </c>
-      <c r="U4">
-        <v>1.562721875</v>
-      </c>
-      <c r="V4">
-        <v>-6.04503</v>
-      </c>
-      <c r="W4">
-        <v>6.07789</v>
+        <v>47</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
@@ -925,69 +942,69 @@
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5">
-        <v>60.7701</v>
-      </c>
-      <c r="O5">
-        <v>3.08059</v>
-      </c>
-      <c r="P5">
-        <v>0.195989</v>
-      </c>
-      <c r="Q5">
-        <v>-2.73745</v>
-      </c>
-      <c r="R5">
-        <v>-60.6691</v>
-      </c>
-      <c r="S5">
-        <v>2.884601</v>
-      </c>
-      <c r="T5">
-        <v>2.933439</v>
-      </c>
-      <c r="U5">
-        <v>1.8974875</v>
-      </c>
-      <c r="V5">
-        <v>-7.35354</v>
-      </c>
-      <c r="W5">
-        <v>7.36635</v>
+        <v>58</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -996,69 +1013,69 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N6">
-        <v>45.1421</v>
+        <v>55.3235</v>
       </c>
       <c r="O6">
-        <v>2.6589</v>
+        <v>3.5379</v>
       </c>
       <c r="P6">
-        <v>0.074771</v>
+        <v>0.126369</v>
       </c>
       <c r="Q6">
-        <v>-2.35402</v>
+        <v>-3.12923</v>
       </c>
       <c r="R6">
-        <v>-45.1924</v>
+        <v>-55.2122</v>
       </c>
       <c r="S6">
-        <v>2.584129</v>
+        <v>3.411531</v>
       </c>
       <c r="T6">
-        <v>2.428791</v>
+        <v>3.255599</v>
       </c>
       <c r="U6">
-        <v>1.4114765625</v>
+        <v>1.7271203125</v>
       </c>
       <c r="V6">
-        <v>-5.47758</v>
+        <v>-6.69211</v>
       </c>
       <c r="W6">
-        <v>5.47207</v>
+        <v>6.70617</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
@@ -1067,69 +1084,69 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7">
-        <v>62.4981</v>
-      </c>
-      <c r="O7">
-        <v>3.0458</v>
-      </c>
-      <c r="P7">
-        <v>0.19737</v>
-      </c>
-      <c r="Q7">
-        <v>-2.65001</v>
-      </c>
-      <c r="R7">
-        <v>-62.1518</v>
-      </c>
-      <c r="S7">
-        <v>2.84843</v>
-      </c>
-      <c r="T7">
-        <v>2.84738</v>
-      </c>
-      <c r="U7">
-        <v>1.9476546875</v>
-      </c>
-      <c r="V7">
-        <v>-7.53332</v>
-      </c>
-      <c r="W7">
-        <v>7.57574</v>
+        <v>58</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
         <v>33</v>
@@ -1138,69 +1155,69 @@
         <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8">
-        <v>46.2899</v>
+        <v>58.8993</v>
       </c>
       <c r="O8">
-        <v>2.31079</v>
+        <v>2.98167</v>
       </c>
       <c r="P8">
-        <v>0.243738</v>
+        <v>0.243746</v>
       </c>
       <c r="Q8">
-        <v>-1.82308</v>
+        <v>-2.49503</v>
       </c>
       <c r="R8">
-        <v>-46.3085</v>
+        <v>-57.7823</v>
       </c>
       <c r="S8">
-        <v>2.067052</v>
+        <v>2.737924</v>
       </c>
       <c r="T8">
-        <v>2.066818</v>
+        <v>2.738776</v>
       </c>
       <c r="U8">
-        <v>1.44685</v>
+        <v>1.82315</v>
       </c>
       <c r="V8">
-        <v>-5.61293</v>
+        <v>-7.00369</v>
       </c>
       <c r="W8">
-        <v>5.61112</v>
+        <v>7.13954</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
         <v>33</v>
@@ -1209,69 +1226,69 @@
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9">
-        <v>60.4984</v>
+        <v>74.35980000000001</v>
       </c>
       <c r="O9">
-        <v>3.00057</v>
+        <v>3.9612</v>
       </c>
       <c r="P9">
-        <v>0.021662</v>
+        <v>0.0690465</v>
       </c>
       <c r="Q9">
-        <v>-2.81149</v>
+        <v>-3.82174</v>
       </c>
       <c r="R9">
-        <v>-61.0526</v>
+        <v>-74.7833</v>
       </c>
       <c r="S9">
-        <v>2.978908</v>
+        <v>3.8921535</v>
       </c>
       <c r="T9">
-        <v>2.833152</v>
+        <v>3.8907865</v>
       </c>
       <c r="U9">
-        <v>1.899234375</v>
+        <v>2.3303609375</v>
       </c>
       <c r="V9">
-        <v>-7.40006</v>
+        <v>-9.064399999999999</v>
       </c>
       <c r="W9">
-        <v>7.33337</v>
+        <v>9.01356</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
@@ -1280,37 +1297,37 @@
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10">
-        <v>45.9112</v>
+        <v>55.7825</v>
       </c>
       <c r="O10">
-        <v>2.24666</v>
+        <v>2.92138</v>
       </c>
       <c r="P10">
-        <v>0.134148</v>
+        <v>0.131227</v>
       </c>
       <c r="Q10">
-        <v>-1.98711</v>
+        <v>-2.65884</v>
       </c>
       <c r="R10">
-        <v>-45.5374</v>
+        <v>-55.9211</v>
       </c>
       <c r="S10">
-        <v>2.112512</v>
+        <v>2.790153</v>
       </c>
       <c r="T10">
-        <v>2.121258</v>
+        <v>2.790067</v>
       </c>
       <c r="U10">
-        <v>1.428884375</v>
+        <v>1.74536875</v>
       </c>
       <c r="V10">
-        <v>-5.51945</v>
+        <v>-6.77807</v>
       </c>
       <c r="W10">
-        <v>5.56523</v>
+        <v>6.76176</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
@@ -1386,197 +1403,197 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="M12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N12" s="1">
-        <v>45.1421</v>
+        <v>55.3235</v>
       </c>
       <c r="O12" s="1">
-        <v>2.24666</v>
+        <v>2.92138</v>
       </c>
       <c r="P12" s="1">
-        <v>0.021662</v>
+        <v>-0.00266445</v>
       </c>
       <c r="Q12" s="1">
-        <v>-3.2573</v>
+        <v>-4.2584</v>
       </c>
       <c r="R12" s="1">
-        <v>-65.3481</v>
+        <v>-78.8015</v>
       </c>
       <c r="S12" s="1">
-        <v>2.067052</v>
+        <v>2.737924</v>
       </c>
       <c r="T12" s="1">
-        <v>2.066818</v>
+        <v>2.738776</v>
       </c>
       <c r="U12" s="1">
-        <v>1.4114765625</v>
+        <v>1.7271203125</v>
       </c>
       <c r="V12" s="1">
-        <v>-7.9208</v>
+        <v>-9.55151</v>
       </c>
       <c r="W12" s="1">
-        <v>5.47207</v>
+        <v>6.70617</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="M13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N13" s="1">
-        <v>64.83929999999999</v>
+        <v>78.7617</v>
       </c>
       <c r="O13" s="1">
-        <v>3.40027</v>
+        <v>4.45169</v>
       </c>
       <c r="P13" s="1">
-        <v>0.243738</v>
+        <v>0.243746</v>
       </c>
       <c r="Q13" s="1">
-        <v>-1.82308</v>
+        <v>-2.49503</v>
       </c>
       <c r="R13" s="1">
-        <v>-45.1924</v>
+        <v>-55.2122</v>
       </c>
       <c r="S13" s="1">
-        <v>3.3540954</v>
+        <v>4.45435445</v>
       </c>
       <c r="T13" s="1">
-        <v>3.3034746</v>
+        <v>4.25573555</v>
       </c>
       <c r="U13" s="1">
-        <v>2.034178125</v>
+        <v>2.461925</v>
       </c>
       <c r="V13" s="1">
-        <v>-5.47758</v>
+        <v>-6.69211</v>
       </c>
       <c r="W13" s="1">
-        <v>7.85949</v>
+        <v>9.54706</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="M14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="M15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="M16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="13:23" s="1" customFormat="1">
       <c r="M17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="13:23" s="1" customFormat="1">
       <c r="M18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N18" s="1">
-        <v>54.0012</v>
+        <v>64.62536</v>
       </c>
       <c r="O18" s="1">
-        <v>2.779637</v>
+        <v>3.570768</v>
       </c>
       <c r="P18" s="1">
-        <v>0.1251062</v>
+        <v>0.1135448</v>
       </c>
       <c r="Q18" s="1">
-        <v>-2.479411</v>
+        <v>-3.272648</v>
       </c>
       <c r="R18" s="1">
-        <v>-54.01464</v>
+        <v>-64.50008</v>
       </c>
       <c r="S18" s="1">
-        <v>2.65453</v>
+        <v>3.457223</v>
       </c>
       <c r="T18" s="1">
-        <v>2.604517</v>
+        <v>3.386193</v>
       </c>
       <c r="U18" s="1">
-        <v>1.687748</v>
+        <v>2.017585</v>
       </c>
       <c r="V18" s="1">
-        <v>-6.614328</v>
+        <v>-7.817956</v>
       </c>
       <c r="W18" s="1">
-        <v>6.613071</v>
+        <v>7.833618</v>
       </c>
     </row>
     <row r="19" spans="13:23" s="1" customFormat="1">
       <c r="M19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N19" s="1">
-        <v>7.547192</v>
+        <v>9.920724999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.368477</v>
+        <v>0.582801</v>
       </c>
       <c r="P19" s="1">
-        <v>0.071161</v>
+        <v>0.081135</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.437449</v>
+        <v>0.674571</v>
       </c>
       <c r="R19" s="1">
-        <v>7.679951</v>
+        <v>10.151526</v>
       </c>
       <c r="S19" s="1">
-        <v>0.400579</v>
+        <v>0.655423</v>
       </c>
       <c r="T19" s="1">
-        <v>0.40394</v>
+        <v>0.6003810000000001</v>
       </c>
       <c r="U19" s="1">
-        <v>0.237881</v>
+        <v>0.313542</v>
       </c>
       <c r="V19" s="1">
-        <v>0.915045</v>
+        <v>1.230508</v>
       </c>
       <c r="W19" s="1">
-        <v>0.89806</v>
+        <v>1.20249</v>
       </c>
     </row>
     <row r="20" spans="13:23" s="1" customFormat="1">
       <c r="M20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N20" s="1">
-        <v>13.975971</v>
+        <v>15.351133</v>
       </c>
       <c r="O20" s="1">
-        <v>13.256299</v>
+        <v>16.321447</v>
       </c>
       <c r="P20" s="1">
-        <v>56.880474</v>
+        <v>71.456377</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.643263</v>
+        <v>20.612391</v>
       </c>
       <c r="R20" s="1">
-        <v>14.218277</v>
+        <v>15.73878</v>
       </c>
       <c r="S20" s="1">
-        <v>15.090393</v>
+        <v>18.958077</v>
       </c>
       <c r="T20" s="1">
-        <v>15.50921</v>
+        <v>17.730265</v>
       </c>
       <c r="U20" s="1">
-        <v>14.09458</v>
+        <v>15.540461</v>
       </c>
       <c r="V20" s="1">
-        <v>13.834285</v>
+        <v>15.73951</v>
       </c>
       <c r="W20" s="1">
-        <v>13.580075</v>
+        <v>15.350378</v>
       </c>
     </row>
     <row r="21" spans="13:23" s="1" customFormat="1"/>

--- a/dcd_top_offset_range_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_range_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="80">
   <si>
     <t>Process</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>typical</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2p (1)</t>
@@ -263,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,26 +276,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,10 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,67 +714,67 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>36</v>
+      <c r="N2">
+        <v>49.9715</v>
+      </c>
+      <c r="O2">
+        <v>2.81986</v>
+      </c>
+      <c r="P2">
+        <v>0.08410629999999999</v>
+      </c>
+      <c r="Q2">
+        <v>-2.65316</v>
+      </c>
+      <c r="R2">
+        <v>-49.8998</v>
+      </c>
+      <c r="S2">
+        <v>2.7357537</v>
+      </c>
+      <c r="T2">
+        <v>2.7372663</v>
+      </c>
+      <c r="U2">
+        <v>1.5604890625</v>
+      </c>
+      <c r="V2">
+        <v>-6.65301</v>
+      </c>
+      <c r="W2">
+        <v>6.66316</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
@@ -800,69 +783,69 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3">
-        <v>78.7617</v>
+        <v>64.7903</v>
       </c>
       <c r="O3">
-        <v>4.45169</v>
+        <v>3.40032</v>
       </c>
       <c r="P3">
-        <v>-0.00266445</v>
+        <v>0.0461796</v>
       </c>
       <c r="Q3">
-        <v>-4.2584</v>
+        <v>-3.25744</v>
       </c>
       <c r="R3">
-        <v>-78.8015</v>
+        <v>-65.3005</v>
       </c>
       <c r="S3">
-        <v>4.45435445</v>
+        <v>3.3541404</v>
       </c>
       <c r="T3">
-        <v>4.25573555</v>
+        <v>3.3036196</v>
       </c>
       <c r="U3">
-        <v>2.461925</v>
+        <v>2.03266875</v>
       </c>
       <c r="V3">
-        <v>-9.55151</v>
+        <v>-7.91502</v>
       </c>
       <c r="W3">
-        <v>9.54706</v>
+        <v>7.85356</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -871,69 +854,69 @@
         <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>50.0895</v>
+      </c>
+      <c r="O4">
+        <v>2.45327</v>
+      </c>
+      <c r="P4">
+        <v>0.128037</v>
+      </c>
+      <c r="Q4">
+        <v>-2.09228</v>
+      </c>
+      <c r="R4">
+        <v>-49.8731</v>
+      </c>
+      <c r="S4">
+        <v>2.325233</v>
+      </c>
+      <c r="T4">
+        <v>2.220317</v>
+      </c>
+      <c r="U4">
+        <v>1.561915625</v>
+      </c>
+      <c r="V4">
+        <v>-6.04503</v>
+      </c>
+      <c r="W4">
+        <v>6.07164</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
       <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
@@ -942,69 +925,69 @@
         <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>60.7702</v>
+      </c>
+      <c r="O5">
+        <v>3.08059</v>
+      </c>
+      <c r="P5">
+        <v>0.196005</v>
+      </c>
+      <c r="Q5">
+        <v>-2.73554</v>
+      </c>
+      <c r="R5">
+        <v>-60.6178</v>
+      </c>
+      <c r="S5">
+        <v>2.884585</v>
+      </c>
+      <c r="T5">
+        <v>2.931545</v>
+      </c>
+      <c r="U5">
+        <v>1.8966875</v>
+      </c>
+      <c r="V5">
+        <v>-7.34733</v>
+      </c>
+      <c r="W5">
+        <v>7.36637</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
@@ -1013,69 +996,69 @@
         <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6">
-        <v>55.3235</v>
+        <v>45.1421</v>
       </c>
       <c r="O6">
-        <v>3.5379</v>
+        <v>2.65902</v>
       </c>
       <c r="P6">
-        <v>0.126369</v>
+        <v>0.07514609999999999</v>
       </c>
       <c r="Q6">
-        <v>-3.12923</v>
+        <v>-2.35417</v>
       </c>
       <c r="R6">
-        <v>-55.2122</v>
+        <v>-45.1925</v>
       </c>
       <c r="S6">
-        <v>3.411531</v>
+        <v>2.5838739</v>
       </c>
       <c r="T6">
-        <v>3.255599</v>
+        <v>2.4293161</v>
       </c>
       <c r="U6">
-        <v>1.7271203125</v>
+        <v>1.411478125</v>
       </c>
       <c r="V6">
-        <v>-6.69211</v>
+        <v>-5.47759</v>
       </c>
       <c r="W6">
-        <v>6.70617</v>
+        <v>5.47207</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
       <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
       <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
         <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
@@ -1084,69 +1067,69 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="N7">
+        <v>62.4982</v>
+      </c>
+      <c r="O7">
+        <v>3.04598</v>
+      </c>
+      <c r="P7">
+        <v>0.197369</v>
+      </c>
+      <c r="Q7">
+        <v>-2.65</v>
+      </c>
+      <c r="R7">
+        <v>-62.1518</v>
+      </c>
+      <c r="S7">
+        <v>2.848611</v>
+      </c>
+      <c r="T7">
+        <v>2.847369</v>
+      </c>
+      <c r="U7">
+        <v>1.94765625</v>
+      </c>
+      <c r="V7">
+        <v>-7.53332</v>
+      </c>
+      <c r="W7">
+        <v>7.57576</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
       <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
         <v>33</v>
@@ -1155,69 +1138,69 @@
         <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8">
-        <v>58.8993</v>
+        <v>46.2899</v>
       </c>
       <c r="O8">
-        <v>2.98167</v>
+        <v>2.31079</v>
       </c>
       <c r="P8">
-        <v>0.243746</v>
+        <v>0.243734</v>
       </c>
       <c r="Q8">
-        <v>-2.49503</v>
+        <v>-1.82307</v>
       </c>
       <c r="R8">
-        <v>-57.7823</v>
+        <v>-46.2603</v>
       </c>
       <c r="S8">
-        <v>2.737924</v>
+        <v>2.067056</v>
       </c>
       <c r="T8">
-        <v>2.738776</v>
+        <v>2.066804</v>
       </c>
       <c r="U8">
-        <v>1.82315</v>
+        <v>1.446096875</v>
       </c>
       <c r="V8">
-        <v>-7.00369</v>
+        <v>-5.60708</v>
       </c>
       <c r="W8">
-        <v>7.13954</v>
+        <v>5.61112</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
       <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
       <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
         <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
       </c>
       <c r="K9" t="s">
         <v>33</v>
@@ -1226,69 +1209,69 @@
         <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9">
-        <v>74.35980000000001</v>
+        <v>60.4982</v>
       </c>
       <c r="O9">
-        <v>3.9612</v>
+        <v>3.00057</v>
       </c>
       <c r="P9">
-        <v>0.0690465</v>
+        <v>0.0216599</v>
       </c>
       <c r="Q9">
-        <v>-3.82174</v>
+        <v>-2.81159</v>
       </c>
       <c r="R9">
-        <v>-74.7833</v>
+        <v>-61.0527</v>
       </c>
       <c r="S9">
-        <v>3.8921535</v>
+        <v>2.9789101</v>
       </c>
       <c r="T9">
-        <v>3.8907865</v>
+        <v>2.8332499</v>
       </c>
       <c r="U9">
-        <v>2.3303609375</v>
+        <v>1.8992328125</v>
       </c>
       <c r="V9">
-        <v>-9.064399999999999</v>
+        <v>-7.4001</v>
       </c>
       <c r="W9">
-        <v>9.01356</v>
+        <v>7.33335</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
@@ -1297,37 +1280,37 @@
         <v>34</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N10">
-        <v>55.7825</v>
+        <v>45.9108</v>
       </c>
       <c r="O10">
-        <v>2.92138</v>
+        <v>2.24693</v>
       </c>
       <c r="P10">
-        <v>0.131227</v>
+        <v>0.182655</v>
       </c>
       <c r="Q10">
-        <v>-2.65884</v>
+        <v>-1.98713</v>
       </c>
       <c r="R10">
-        <v>-55.9211</v>
+        <v>-45.6406</v>
       </c>
       <c r="S10">
-        <v>2.790153</v>
+        <v>2.064275</v>
       </c>
       <c r="T10">
-        <v>2.790067</v>
+        <v>2.169785</v>
       </c>
       <c r="U10">
-        <v>1.74536875</v>
+        <v>1.430490625</v>
       </c>
       <c r="V10">
-        <v>-6.77807</v>
+        <v>-5.53196</v>
       </c>
       <c r="W10">
-        <v>6.76176</v>
+        <v>5.56517</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
@@ -1403,197 +1386,197 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="M12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1">
-        <v>55.3235</v>
+        <v>45.1421</v>
       </c>
       <c r="O12" s="1">
-        <v>2.92138</v>
+        <v>2.24693</v>
       </c>
       <c r="P12" s="1">
-        <v>-0.00266445</v>
+        <v>0.0216599</v>
       </c>
       <c r="Q12" s="1">
-        <v>-4.2584</v>
+        <v>-3.25744</v>
       </c>
       <c r="R12" s="1">
-        <v>-78.8015</v>
+        <v>-65.3005</v>
       </c>
       <c r="S12" s="1">
-        <v>2.737924</v>
+        <v>2.064275</v>
       </c>
       <c r="T12" s="1">
-        <v>2.738776</v>
+        <v>2.066804</v>
       </c>
       <c r="U12" s="1">
-        <v>1.7271203125</v>
+        <v>1.411478125</v>
       </c>
       <c r="V12" s="1">
-        <v>-9.55151</v>
+        <v>-7.91502</v>
       </c>
       <c r="W12" s="1">
-        <v>6.70617</v>
+        <v>5.47207</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="M13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13" s="1">
-        <v>78.7617</v>
+        <v>64.7903</v>
       </c>
       <c r="O13" s="1">
-        <v>4.45169</v>
+        <v>3.40032</v>
       </c>
       <c r="P13" s="1">
-        <v>0.243746</v>
+        <v>0.243734</v>
       </c>
       <c r="Q13" s="1">
-        <v>-2.49503</v>
+        <v>-1.82307</v>
       </c>
       <c r="R13" s="1">
-        <v>-55.2122</v>
+        <v>-45.1925</v>
       </c>
       <c r="S13" s="1">
-        <v>4.45435445</v>
+        <v>3.3541404</v>
       </c>
       <c r="T13" s="1">
-        <v>4.25573555</v>
+        <v>3.3036196</v>
       </c>
       <c r="U13" s="1">
-        <v>2.461925</v>
+        <v>2.03266875</v>
       </c>
       <c r="V13" s="1">
-        <v>-6.69211</v>
+        <v>-5.47759</v>
       </c>
       <c r="W13" s="1">
-        <v>9.54706</v>
+        <v>7.85356</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="M14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="M15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="M16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="13:23" s="1" customFormat="1">
       <c r="M17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="13:23" s="1" customFormat="1">
       <c r="M18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N18" s="1">
-        <v>64.62536</v>
+        <v>53.99563</v>
       </c>
       <c r="O18" s="1">
-        <v>3.570768</v>
+        <v>2.779703</v>
       </c>
       <c r="P18" s="1">
-        <v>0.1135448</v>
+        <v>0.1305435</v>
       </c>
       <c r="Q18" s="1">
-        <v>-3.272648</v>
+        <v>-2.484931</v>
       </c>
       <c r="R18" s="1">
-        <v>-64.50008</v>
+        <v>-53.99879</v>
       </c>
       <c r="S18" s="1">
-        <v>3.457223</v>
+        <v>2.64916</v>
       </c>
       <c r="T18" s="1">
-        <v>3.386193</v>
+        <v>2.615475</v>
       </c>
       <c r="U18" s="1">
-        <v>2.017585</v>
+        <v>1.687413</v>
       </c>
       <c r="V18" s="1">
-        <v>-7.817956</v>
+        <v>-6.612271</v>
       </c>
       <c r="W18" s="1">
-        <v>7.833618</v>
+        <v>6.612467</v>
       </c>
     </row>
     <row r="19" spans="13:23" s="1" customFormat="1">
       <c r="M19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N19" s="1">
-        <v>9.920724999999999</v>
+        <v>7.539349</v>
       </c>
       <c r="O19" s="1">
-        <v>0.582801</v>
+        <v>0.368457</v>
       </c>
       <c r="P19" s="1">
-        <v>0.081135</v>
+        <v>0.073396</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.674571</v>
+        <v>0.431917</v>
       </c>
       <c r="R19" s="1">
-        <v>10.151526</v>
+        <v>7.665844</v>
       </c>
       <c r="S19" s="1">
-        <v>0.655423</v>
+        <v>0.408053</v>
       </c>
       <c r="T19" s="1">
-        <v>0.6003810000000001</v>
+        <v>0.391573</v>
       </c>
       <c r="U19" s="1">
-        <v>0.313542</v>
+        <v>0.237541</v>
       </c>
       <c r="V19" s="1">
-        <v>1.230508</v>
+        <v>0.912559</v>
       </c>
       <c r="W19" s="1">
-        <v>1.20249</v>
+        <v>0.897613</v>
       </c>
     </row>
     <row r="20" spans="13:23" s="1" customFormat="1">
       <c r="M20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N20" s="1">
-        <v>15.351133</v>
+        <v>13.962887</v>
       </c>
       <c r="O20" s="1">
-        <v>16.321447</v>
+        <v>13.255265</v>
       </c>
       <c r="P20" s="1">
-        <v>71.456377</v>
+        <v>56.223404</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.612391</v>
+        <v>17.381448</v>
       </c>
       <c r="R20" s="1">
-        <v>15.73878</v>
+        <v>14.196326</v>
       </c>
       <c r="S20" s="1">
-        <v>18.958077</v>
+        <v>15.403109</v>
       </c>
       <c r="T20" s="1">
-        <v>17.730265</v>
+        <v>14.971391</v>
       </c>
       <c r="U20" s="1">
-        <v>15.540461</v>
+        <v>14.077229</v>
       </c>
       <c r="V20" s="1">
-        <v>15.73951</v>
+        <v>13.800992</v>
       </c>
       <c r="W20" s="1">
-        <v>15.350378</v>
+        <v>13.574555</v>
       </c>
     </row>
     <row r="21" spans="13:23" s="1" customFormat="1"/>

--- a/dcd_top_offset_range_tsmc2p_meas.xlsx
+++ b/dcd_top_offset_range_tsmc2p_meas.xlsx
@@ -718,10 +718,10 @@
         <v>49.9715</v>
       </c>
       <c r="O2">
-        <v>2.81986</v>
+        <v>2.77191</v>
       </c>
       <c r="P2">
-        <v>0.08410629999999999</v>
+        <v>0.135337</v>
       </c>
       <c r="Q2">
         <v>-2.65316</v>
@@ -730,10 +730,10 @@
         <v>-49.8998</v>
       </c>
       <c r="S2">
-        <v>2.7357537</v>
+        <v>2.636573</v>
       </c>
       <c r="T2">
-        <v>2.7372663</v>
+        <v>2.788497</v>
       </c>
       <c r="U2">
         <v>1.5604890625</v>
@@ -742,7 +742,7 @@
         <v>-6.65301</v>
       </c>
       <c r="W2">
-        <v>6.66316</v>
+        <v>6.66315</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -786,34 +786,34 @@
         <v>46</v>
       </c>
       <c r="N3">
-        <v>64.7903</v>
+        <v>64.7895</v>
       </c>
       <c r="O3">
-        <v>3.40032</v>
+        <v>3.40024</v>
       </c>
       <c r="P3">
-        <v>0.0461796</v>
+        <v>0.0461748</v>
       </c>
       <c r="Q3">
-        <v>-3.25744</v>
+        <v>-3.25728</v>
       </c>
       <c r="R3">
-        <v>-65.3005</v>
+        <v>-65.3008</v>
       </c>
       <c r="S3">
-        <v>3.3541404</v>
+        <v>3.3540652</v>
       </c>
       <c r="T3">
-        <v>3.3036196</v>
+        <v>3.3034548</v>
       </c>
       <c r="U3">
-        <v>2.03266875</v>
+        <v>2.0326609375</v>
       </c>
       <c r="V3">
-        <v>-7.91502</v>
+        <v>-7.91507</v>
       </c>
       <c r="W3">
-        <v>7.85356</v>
+        <v>7.85345</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -857,34 +857,34 @@
         <v>46</v>
       </c>
       <c r="N4">
-        <v>50.0895</v>
+        <v>50.1411</v>
       </c>
       <c r="O4">
-        <v>2.45327</v>
+        <v>2.40191</v>
       </c>
       <c r="P4">
-        <v>0.128037</v>
+        <v>0.128338</v>
       </c>
       <c r="Q4">
-        <v>-2.09228</v>
+        <v>-2.09229</v>
       </c>
       <c r="R4">
-        <v>-49.8731</v>
+        <v>-49.9247</v>
       </c>
       <c r="S4">
-        <v>2.325233</v>
+        <v>2.273572</v>
       </c>
       <c r="T4">
-        <v>2.220317</v>
+        <v>2.220628</v>
       </c>
       <c r="U4">
-        <v>1.561915625</v>
+        <v>1.563528125</v>
       </c>
       <c r="V4">
-        <v>-6.04503</v>
+        <v>-6.05129</v>
       </c>
       <c r="W4">
-        <v>6.07164</v>
+        <v>6.0779</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -928,34 +928,34 @@
         <v>57</v>
       </c>
       <c r="N5">
-        <v>60.7702</v>
+        <v>60.7703</v>
       </c>
       <c r="O5">
-        <v>3.08059</v>
+        <v>3.08056</v>
       </c>
       <c r="P5">
-        <v>0.196005</v>
+        <v>0.19602</v>
       </c>
       <c r="Q5">
-        <v>-2.73554</v>
+        <v>-2.73921</v>
       </c>
       <c r="R5">
-        <v>-60.6178</v>
+        <v>-60.6177</v>
       </c>
       <c r="S5">
-        <v>2.884585</v>
+        <v>2.88454</v>
       </c>
       <c r="T5">
-        <v>2.931545</v>
+        <v>2.93523</v>
       </c>
       <c r="U5">
         <v>1.8966875</v>
       </c>
       <c r="V5">
-        <v>-7.34733</v>
+        <v>-7.34732</v>
       </c>
       <c r="W5">
-        <v>7.36637</v>
+        <v>7.36638</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -999,31 +999,31 @@
         <v>57</v>
       </c>
       <c r="N6">
-        <v>45.1421</v>
+        <v>45.1422</v>
       </c>
       <c r="O6">
         <v>2.65902</v>
       </c>
       <c r="P6">
-        <v>0.07514609999999999</v>
+        <v>0.126249</v>
       </c>
       <c r="Q6">
-        <v>-2.35417</v>
+        <v>-2.30235</v>
       </c>
       <c r="R6">
-        <v>-45.1925</v>
+        <v>-45.2439</v>
       </c>
       <c r="S6">
-        <v>2.5838739</v>
+        <v>2.532771</v>
       </c>
       <c r="T6">
-        <v>2.4293161</v>
+        <v>2.428599</v>
       </c>
       <c r="U6">
-        <v>1.411478125</v>
+        <v>1.4122828125</v>
       </c>
       <c r="V6">
-        <v>-5.47759</v>
+        <v>-5.48381</v>
       </c>
       <c r="W6">
         <v>5.47207</v>
@@ -1070,34 +1070,34 @@
         <v>57</v>
       </c>
       <c r="N7">
-        <v>62.4982</v>
+        <v>62.4474</v>
       </c>
       <c r="O7">
-        <v>3.04598</v>
+        <v>3.04624</v>
       </c>
       <c r="P7">
         <v>0.197369</v>
       </c>
       <c r="Q7">
-        <v>-2.65</v>
+        <v>-2.65009</v>
       </c>
       <c r="R7">
-        <v>-62.1518</v>
+        <v>-62.202</v>
       </c>
       <c r="S7">
-        <v>2.848611</v>
+        <v>2.848871</v>
       </c>
       <c r="T7">
-        <v>2.847369</v>
+        <v>2.847459</v>
       </c>
       <c r="U7">
-        <v>1.94765625</v>
+        <v>1.947646875</v>
       </c>
       <c r="V7">
-        <v>-7.53332</v>
+        <v>-7.53941</v>
       </c>
       <c r="W7">
-        <v>7.57576</v>
+        <v>7.56961</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1150,22 +1150,22 @@
         <v>0.243734</v>
       </c>
       <c r="Q8">
-        <v>-1.82307</v>
+        <v>-1.82466</v>
       </c>
       <c r="R8">
-        <v>-46.2603</v>
+        <v>-46.2604</v>
       </c>
       <c r="S8">
         <v>2.067056</v>
       </c>
       <c r="T8">
-        <v>2.066804</v>
+        <v>2.068394</v>
       </c>
       <c r="U8">
-        <v>1.446096875</v>
+        <v>1.4460984375</v>
       </c>
       <c r="V8">
-        <v>-5.60708</v>
+        <v>-5.60709</v>
       </c>
       <c r="W8">
         <v>5.61112</v>
@@ -1212,34 +1212,34 @@
         <v>57</v>
       </c>
       <c r="N9">
-        <v>60.4982</v>
+        <v>60.498</v>
       </c>
       <c r="O9">
         <v>3.00057</v>
       </c>
       <c r="P9">
-        <v>0.0216599</v>
+        <v>0.06919980000000001</v>
       </c>
       <c r="Q9">
-        <v>-2.81159</v>
+        <v>-2.8116</v>
       </c>
       <c r="R9">
-        <v>-61.0527</v>
+        <v>-61.0522</v>
       </c>
       <c r="S9">
-        <v>2.9789101</v>
+        <v>2.9313702</v>
       </c>
       <c r="T9">
-        <v>2.8332499</v>
+        <v>2.8807998</v>
       </c>
       <c r="U9">
-        <v>1.8992328125</v>
+        <v>1.899221875</v>
       </c>
       <c r="V9">
-        <v>-7.4001</v>
+        <v>-7.40003</v>
       </c>
       <c r="W9">
-        <v>7.33335</v>
+        <v>7.33333</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1286,28 +1286,28 @@
         <v>45.9108</v>
       </c>
       <c r="O10">
-        <v>2.24693</v>
+        <v>2.24696</v>
       </c>
       <c r="P10">
         <v>0.182655</v>
       </c>
       <c r="Q10">
-        <v>-1.98713</v>
+        <v>-1.9871</v>
       </c>
       <c r="R10">
-        <v>-45.6406</v>
+        <v>-45.5885</v>
       </c>
       <c r="S10">
-        <v>2.064275</v>
+        <v>2.064305</v>
       </c>
       <c r="T10">
-        <v>2.169785</v>
+        <v>2.169755</v>
       </c>
       <c r="U10">
-        <v>1.430490625</v>
+        <v>1.4296765625</v>
       </c>
       <c r="V10">
-        <v>-5.53196</v>
+        <v>-5.52564</v>
       </c>
       <c r="W10">
         <v>5.56517</v>
@@ -1389,31 +1389,31 @@
         <v>71</v>
       </c>
       <c r="N12" s="1">
-        <v>45.1421</v>
+        <v>45.1422</v>
       </c>
       <c r="O12" s="1">
-        <v>2.24693</v>
+        <v>2.24696</v>
       </c>
       <c r="P12" s="1">
-        <v>0.0216599</v>
+        <v>0.0461748</v>
       </c>
       <c r="Q12" s="1">
-        <v>-3.25744</v>
+        <v>-3.25728</v>
       </c>
       <c r="R12" s="1">
-        <v>-65.3005</v>
+        <v>-65.3008</v>
       </c>
       <c r="S12" s="1">
-        <v>2.064275</v>
+        <v>2.064305</v>
       </c>
       <c r="T12" s="1">
-        <v>2.066804</v>
+        <v>2.068394</v>
       </c>
       <c r="U12" s="1">
-        <v>1.411478125</v>
+        <v>1.4122828125</v>
       </c>
       <c r="V12" s="1">
-        <v>-7.91502</v>
+        <v>-7.91507</v>
       </c>
       <c r="W12" s="1">
         <v>5.47207</v>
@@ -1424,34 +1424,34 @@
         <v>72</v>
       </c>
       <c r="N13" s="1">
-        <v>64.7903</v>
+        <v>64.7895</v>
       </c>
       <c r="O13" s="1">
-        <v>3.40032</v>
+        <v>3.40024</v>
       </c>
       <c r="P13" s="1">
         <v>0.243734</v>
       </c>
       <c r="Q13" s="1">
-        <v>-1.82307</v>
+        <v>-1.82466</v>
       </c>
       <c r="R13" s="1">
-        <v>-45.1925</v>
+        <v>-45.2439</v>
       </c>
       <c r="S13" s="1">
-        <v>3.3541404</v>
+        <v>3.3540652</v>
       </c>
       <c r="T13" s="1">
-        <v>3.3036196</v>
+        <v>3.3034548</v>
       </c>
       <c r="U13" s="1">
-        <v>2.03266875</v>
+        <v>2.0326609375</v>
       </c>
       <c r="V13" s="1">
-        <v>-5.47759</v>
+        <v>-5.48381</v>
       </c>
       <c r="W13" s="1">
-        <v>7.85356</v>
+        <v>7.85345</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
@@ -1482,31 +1482,31 @@
         <v>53.99563</v>
       </c>
       <c r="O18" s="1">
-        <v>2.779703</v>
+        <v>2.768689</v>
       </c>
       <c r="P18" s="1">
-        <v>0.1305435</v>
+        <v>0.1472307</v>
       </c>
       <c r="Q18" s="1">
-        <v>-2.484931</v>
+        <v>-2.479749</v>
       </c>
       <c r="R18" s="1">
-        <v>-53.99879</v>
+        <v>-54.01</v>
       </c>
       <c r="S18" s="1">
-        <v>2.64916</v>
+        <v>2.621458</v>
       </c>
       <c r="T18" s="1">
-        <v>2.615475</v>
+        <v>2.62698</v>
       </c>
       <c r="U18" s="1">
-        <v>1.687413</v>
+        <v>1.687588</v>
       </c>
       <c r="V18" s="1">
-        <v>-6.612271</v>
+        <v>-6.61363</v>
       </c>
       <c r="W18" s="1">
-        <v>6.612467</v>
+        <v>6.612464</v>
       </c>
     </row>
     <row r="19" spans="13:23" s="1" customFormat="1">
@@ -1514,34 +1514,34 @@
         <v>78</v>
       </c>
       <c r="N19" s="1">
-        <v>7.539349</v>
+        <v>7.529896</v>
       </c>
       <c r="O19" s="1">
-        <v>0.368457</v>
+        <v>0.373476</v>
       </c>
       <c r="P19" s="1">
-        <v>0.073396</v>
+        <v>0.060279</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.431917</v>
+        <v>0.433913</v>
       </c>
       <c r="R19" s="1">
-        <v>7.665844</v>
+        <v>7.668487</v>
       </c>
       <c r="S19" s="1">
-        <v>0.408053</v>
+        <v>0.408328</v>
       </c>
       <c r="T19" s="1">
-        <v>0.391573</v>
+        <v>0.396836</v>
       </c>
       <c r="U19" s="1">
-        <v>0.237541</v>
+        <v>0.237438</v>
       </c>
       <c r="V19" s="1">
-        <v>0.912559</v>
+        <v>0.912789</v>
       </c>
       <c r="W19" s="1">
-        <v>0.897613</v>
+        <v>0.896447</v>
       </c>
     </row>
     <row r="20" spans="13:23" s="1" customFormat="1">
@@ -1549,34 +1549,34 @@
         <v>79</v>
       </c>
       <c r="N20" s="1">
-        <v>13.962887</v>
+        <v>13.94538</v>
       </c>
       <c r="O20" s="1">
-        <v>13.255265</v>
+        <v>13.489272</v>
       </c>
       <c r="P20" s="1">
-        <v>56.223404</v>
+        <v>40.941869</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.381448</v>
+        <v>17.498263</v>
       </c>
       <c r="R20" s="1">
-        <v>14.196326</v>
+        <v>14.198273</v>
       </c>
       <c r="S20" s="1">
-        <v>15.403109</v>
+        <v>15.57637</v>
       </c>
       <c r="T20" s="1">
-        <v>14.971391</v>
+        <v>15.106168</v>
       </c>
       <c r="U20" s="1">
-        <v>14.077229</v>
+        <v>14.069666</v>
       </c>
       <c r="V20" s="1">
-        <v>13.800992</v>
+        <v>13.801634</v>
       </c>
       <c r="W20" s="1">
-        <v>13.574555</v>
+        <v>13.556928</v>
       </c>
     </row>
     <row r="21" spans="13:23" s="1" customFormat="1"/>
